--- a/results/pvalue_SIDER_all_DGI_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_all_DGI_AUPR+AUROCperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26.293</t>
+          <t>23.713</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25.636</t>
+          <t>23.575</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.765</t>
+          <t>25.339</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.291</t>
+          <t>21.019</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>37.065</t>
+          <t>37.456</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>37.295</t>
+          <t>37.704</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>37.734</t>
+          <t>38.183</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14.229</t>
+          <t>21.183</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
